--- a/largeScale.xlsx
+++ b/largeScale.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\学习\大四下学期\毕业设计\完成成果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\学习\大四下学期\毕业设计\GraduationProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,11 +379,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="502494816"/>
-        <c:axId val="502489720"/>
+        <c:axId val="468350184"/>
+        <c:axId val="468350576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="502494816"/>
+        <c:axId val="468350184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,26 +459,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -517,12 +497,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502489720"/>
+        <c:crossAx val="468350576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="502489720"/>
+        <c:axId val="468350576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,26 +578,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -656,7 +616,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="502494816"/>
+        <c:crossAx val="468350184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,11 +931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506118440"/>
-        <c:axId val="506116872"/>
+        <c:axId val="468351360"/>
+        <c:axId val="468351752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="506118440"/>
+        <c:axId val="468351360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,12 +1062,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506116872"/>
+        <c:crossAx val="468351752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506116872"/>
+        <c:axId val="468351752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1235,7 +1195,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506118440"/>
+        <c:crossAx val="468351360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1545,11 +1505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="506844840"/>
-        <c:axId val="506844448"/>
+        <c:axId val="468352536"/>
+        <c:axId val="468352928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="506844840"/>
+        <c:axId val="468352536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,12 +1626,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506844448"/>
+        <c:crossAx val="468352928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="506844448"/>
+        <c:axId val="468352928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1749,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506844840"/>
+        <c:crossAx val="468352536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1911,46 +1871,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent3"/>
@@ -1988,557 +1908,6 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3058,7 +2427,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3934,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
